--- a/Datasets/Emigration.xlsx
+++ b/Datasets/Emigration.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\MSc Data Science and Analytics\Data Visualization\Coursework 2\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/831e8e9345796059/MSc Data Science and Analytics/Data Visualization/Coursework 2/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA0A585B-60BE-4DB9-B4A1-03597478E84C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{EA0A585B-60BE-4DB9-B4A1-03597478E84C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F01B9C3E-E00F-4159-A25D-2B2666D52FB7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17415" yWindow="2400" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Structure" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Φύλλο1" sheetId="5" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
+    <sheet name="Structure" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet 1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet 2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="117">
   <si>
     <t>Emigration [TPS00177]</t>
   </si>
@@ -372,6 +384,9 @@
   <si>
     <t>provisional</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -520,6 +535,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -527,6 +543,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -889,29 +906,2731 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE114FB1-1107-430D-B0BB-A14DF62A9BAE}">
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="17">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="17">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="17">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="17">
+        <v>2011</v>
+      </c>
+      <c r="F1" s="17">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="17">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="17">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="17">
+        <v>2015</v>
+      </c>
+      <c r="J1" s="17">
+        <v>2016</v>
+      </c>
+      <c r="K1" s="17">
+        <v>2017</v>
+      </c>
+      <c r="L1" s="17">
+        <v>2018</v>
+      </c>
+      <c r="M1" s="17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="str">
+        <f>'Sheet 1'!A14</f>
+        <v>European Union - 27 countries (from 2020)</v>
+      </c>
+      <c r="B2" s="21" t="str">
+        <f>'Sheet 1'!B14</f>
+        <v>:</v>
+      </c>
+      <c r="C2" s="21" t="str">
+        <f>'Sheet 1'!D14</f>
+        <v>:</v>
+      </c>
+      <c r="D2" s="21" t="str">
+        <f>'Sheet 1'!F14</f>
+        <v>:</v>
+      </c>
+      <c r="E2" s="21" t="str">
+        <f>'Sheet 1'!H14</f>
+        <v>:</v>
+      </c>
+      <c r="F2" s="21" t="str">
+        <f>'Sheet 1'!J14</f>
+        <v>:</v>
+      </c>
+      <c r="G2" s="21" t="str">
+        <f>'Sheet 1'!L14</f>
+        <v>:</v>
+      </c>
+      <c r="H2" s="21" t="str">
+        <f>'Sheet 1'!N14</f>
+        <v>:</v>
+      </c>
+      <c r="I2" s="21" t="str">
+        <f>'Sheet 1'!P14</f>
+        <v>:</v>
+      </c>
+      <c r="J2" s="21" t="str">
+        <f>'Sheet 1'!R14</f>
+        <v>:</v>
+      </c>
+      <c r="K2" s="21" t="str">
+        <f>'Sheet 1'!T14</f>
+        <v>:</v>
+      </c>
+      <c r="L2" s="21" t="str">
+        <f>'Sheet 1'!V14</f>
+        <v>:</v>
+      </c>
+      <c r="M2" s="21" t="str">
+        <f>'Sheet 1'!X14</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="str">
+        <f>'Sheet 1'!A15</f>
+        <v>European Union - 28 countries (2013-2020)</v>
+      </c>
+      <c r="B3" s="21" t="str">
+        <f>'Sheet 1'!B15</f>
+        <v>:</v>
+      </c>
+      <c r="C3" s="21" t="str">
+        <f>'Sheet 1'!D15</f>
+        <v>:</v>
+      </c>
+      <c r="D3" s="21" t="str">
+        <f>'Sheet 1'!F15</f>
+        <v>:</v>
+      </c>
+      <c r="E3" s="21" t="str">
+        <f>'Sheet 1'!H15</f>
+        <v>:</v>
+      </c>
+      <c r="F3" s="21" t="str">
+        <f>'Sheet 1'!J15</f>
+        <v>:</v>
+      </c>
+      <c r="G3" s="21" t="str">
+        <f>'Sheet 1'!L15</f>
+        <v>:</v>
+      </c>
+      <c r="H3" s="21" t="str">
+        <f>'Sheet 1'!N15</f>
+        <v>:</v>
+      </c>
+      <c r="I3" s="21" t="str">
+        <f>'Sheet 1'!P15</f>
+        <v>:</v>
+      </c>
+      <c r="J3" s="21" t="str">
+        <f>'Sheet 1'!R15</f>
+        <v>:</v>
+      </c>
+      <c r="K3" s="21" t="str">
+        <f>'Sheet 1'!T15</f>
+        <v>:</v>
+      </c>
+      <c r="L3" s="21" t="str">
+        <f>'Sheet 1'!V15</f>
+        <v>:</v>
+      </c>
+      <c r="M3" s="21" t="str">
+        <f>'Sheet 1'!X15</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
+        <f>'Sheet 1'!A16</f>
+        <v>Euro area - 19 countries  (from 2015)</v>
+      </c>
+      <c r="B4" s="21" t="str">
+        <f>'Sheet 1'!B16</f>
+        <v>:</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>'Sheet 1'!D16</f>
+        <v>:</v>
+      </c>
+      <c r="D4" s="21" t="str">
+        <f>'Sheet 1'!F16</f>
+        <v>:</v>
+      </c>
+      <c r="E4" s="21" t="str">
+        <f>'Sheet 1'!H16</f>
+        <v>:</v>
+      </c>
+      <c r="F4" s="21" t="str">
+        <f>'Sheet 1'!J16</f>
+        <v>:</v>
+      </c>
+      <c r="G4" s="21" t="str">
+        <f>'Sheet 1'!L16</f>
+        <v>:</v>
+      </c>
+      <c r="H4" s="21" t="str">
+        <f>'Sheet 1'!N16</f>
+        <v>:</v>
+      </c>
+      <c r="I4" s="21" t="str">
+        <f>'Sheet 1'!P16</f>
+        <v>:</v>
+      </c>
+      <c r="J4" s="21" t="str">
+        <f>'Sheet 1'!R16</f>
+        <v>:</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f>'Sheet 1'!T16</f>
+        <v>:</v>
+      </c>
+      <c r="L4" s="21" t="str">
+        <f>'Sheet 1'!V16</f>
+        <v>:</v>
+      </c>
+      <c r="M4" s="21" t="str">
+        <f>'Sheet 1'!X16</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="str">
+        <f>'Sheet 1'!A17</f>
+        <v>Belgium</v>
+      </c>
+      <c r="B5" s="21" t="str">
+        <f>'Sheet 1'!B17</f>
+        <v>:</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>'Sheet 1'!D17</f>
+        <v>:</v>
+      </c>
+      <c r="D5" s="21">
+        <f>'Sheet 1'!F17</f>
+        <v>66013</v>
+      </c>
+      <c r="E5" s="21">
+        <f>'Sheet 1'!H17</f>
+        <v>84148</v>
+      </c>
+      <c r="F5" s="21">
+        <f>'Sheet 1'!J17</f>
+        <v>93600</v>
+      </c>
+      <c r="G5" s="21">
+        <f>'Sheet 1'!L17</f>
+        <v>102657</v>
+      </c>
+      <c r="H5" s="21">
+        <f>'Sheet 1'!N17</f>
+        <v>94573</v>
+      </c>
+      <c r="I5" s="21">
+        <f>'Sheet 1'!P17</f>
+        <v>89794</v>
+      </c>
+      <c r="J5" s="21">
+        <f>'Sheet 1'!R17</f>
+        <v>92471</v>
+      </c>
+      <c r="K5" s="21">
+        <f>'Sheet 1'!T17</f>
+        <v>89690</v>
+      </c>
+      <c r="L5" s="21">
+        <f>'Sheet 1'!V17</f>
+        <v>88935</v>
+      </c>
+      <c r="M5" s="21">
+        <f>'Sheet 1'!X17</f>
+        <v>102936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="str">
+        <f>'Sheet 1'!A18</f>
+        <v>Bulgaria</v>
+      </c>
+      <c r="B6" s="21" t="str">
+        <f>'Sheet 1'!B18</f>
+        <v>:</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>'Sheet 1'!D18</f>
+        <v>:</v>
+      </c>
+      <c r="D6" s="21" t="str">
+        <f>'Sheet 1'!F18</f>
+        <v>:</v>
+      </c>
+      <c r="E6" s="21" t="str">
+        <f>'Sheet 1'!H18</f>
+        <v>:</v>
+      </c>
+      <c r="F6" s="21">
+        <f>'Sheet 1'!J18</f>
+        <v>16615</v>
+      </c>
+      <c r="G6" s="21">
+        <f>'Sheet 1'!L18</f>
+        <v>19678</v>
+      </c>
+      <c r="H6" s="21">
+        <f>'Sheet 1'!N18</f>
+        <v>28727</v>
+      </c>
+      <c r="I6" s="21">
+        <f>'Sheet 1'!P18</f>
+        <v>29470</v>
+      </c>
+      <c r="J6" s="21">
+        <f>'Sheet 1'!R18</f>
+        <v>30570</v>
+      </c>
+      <c r="K6" s="21">
+        <f>'Sheet 1'!T18</f>
+        <v>31586</v>
+      </c>
+      <c r="L6" s="21">
+        <f>'Sheet 1'!V18</f>
+        <v>33225</v>
+      </c>
+      <c r="M6" s="21">
+        <f>'Sheet 1'!X18</f>
+        <v>39941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="str">
+        <f>'Sheet 1'!A19</f>
+        <v>Czechia</v>
+      </c>
+      <c r="B7" s="21">
+        <f>'Sheet 1'!B19</f>
+        <v>51478</v>
+      </c>
+      <c r="C7" s="21">
+        <f>'Sheet 1'!D19</f>
+        <v>61782</v>
+      </c>
+      <c r="D7" s="21">
+        <f>'Sheet 1'!F19</f>
+        <v>61069</v>
+      </c>
+      <c r="E7" s="21">
+        <f>'Sheet 1'!H19</f>
+        <v>55910</v>
+      </c>
+      <c r="F7" s="21">
+        <f>'Sheet 1'!J19</f>
+        <v>46106</v>
+      </c>
+      <c r="G7" s="21">
+        <f>'Sheet 1'!L19</f>
+        <v>25894</v>
+      </c>
+      <c r="H7" s="21">
+        <f>'Sheet 1'!N19</f>
+        <v>28468</v>
+      </c>
+      <c r="I7" s="21">
+        <f>'Sheet 1'!P19</f>
+        <v>25684</v>
+      </c>
+      <c r="J7" s="21">
+        <f>'Sheet 1'!R19</f>
+        <v>38864</v>
+      </c>
+      <c r="K7" s="21">
+        <f>'Sheet 1'!T19</f>
+        <v>27316</v>
+      </c>
+      <c r="L7" s="21">
+        <f>'Sheet 1'!V19</f>
+        <v>26742</v>
+      </c>
+      <c r="M7" s="21">
+        <f>'Sheet 1'!X19</f>
+        <v>77798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="str">
+        <f>'Sheet 1'!A20</f>
+        <v>Denmark</v>
+      </c>
+      <c r="B8" s="21">
+        <f>'Sheet 1'!B20</f>
+        <v>38356</v>
+      </c>
+      <c r="C8" s="21">
+        <f>'Sheet 1'!D20</f>
+        <v>39899</v>
+      </c>
+      <c r="D8" s="21">
+        <f>'Sheet 1'!F20</f>
+        <v>41456</v>
+      </c>
+      <c r="E8" s="21">
+        <f>'Sheet 1'!H20</f>
+        <v>41593</v>
+      </c>
+      <c r="F8" s="21">
+        <f>'Sheet 1'!J20</f>
+        <v>43663</v>
+      </c>
+      <c r="G8" s="21">
+        <f>'Sheet 1'!L20</f>
+        <v>43310</v>
+      </c>
+      <c r="H8" s="21">
+        <f>'Sheet 1'!N20</f>
+        <v>44426</v>
+      </c>
+      <c r="I8" s="21">
+        <f>'Sheet 1'!P20</f>
+        <v>44625</v>
+      </c>
+      <c r="J8" s="21">
+        <f>'Sheet 1'!R20</f>
+        <v>52654</v>
+      </c>
+      <c r="K8" s="21">
+        <f>'Sheet 1'!T20</f>
+        <v>56403</v>
+      </c>
+      <c r="L8" s="21">
+        <f>'Sheet 1'!V20</f>
+        <v>60381</v>
+      </c>
+      <c r="M8" s="21">
+        <f>'Sheet 1'!X20</f>
+        <v>66520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="str">
+        <f>'Sheet 1'!A21</f>
+        <v>Germany (until 1990 former territory of the FRG)</v>
+      </c>
+      <c r="B9" s="21">
+        <f>'Sheet 1'!B21</f>
+        <v>737889</v>
+      </c>
+      <c r="C9" s="21">
+        <f>'Sheet 1'!D21</f>
+        <v>286582</v>
+      </c>
+      <c r="D9" s="21">
+        <f>'Sheet 1'!F21</f>
+        <v>252456</v>
+      </c>
+      <c r="E9" s="21">
+        <f>'Sheet 1'!H21</f>
+        <v>249045</v>
+      </c>
+      <c r="F9" s="21">
+        <f>'Sheet 1'!J21</f>
+        <v>240001</v>
+      </c>
+      <c r="G9" s="21">
+        <f>'Sheet 1'!L21</f>
+        <v>259328</v>
+      </c>
+      <c r="H9" s="21">
+        <f>'Sheet 1'!N21</f>
+        <v>324221</v>
+      </c>
+      <c r="I9" s="21">
+        <f>'Sheet 1'!P21</f>
+        <v>338403</v>
+      </c>
+      <c r="J9" s="21">
+        <f>'Sheet 1'!R21</f>
+        <v>533762</v>
+      </c>
+      <c r="K9" s="21">
+        <f>'Sheet 1'!T21</f>
+        <v>560700</v>
+      </c>
+      <c r="L9" s="21">
+        <f>'Sheet 1'!V21</f>
+        <v>540415</v>
+      </c>
+      <c r="M9" s="21">
+        <f>'Sheet 1'!X21</f>
+        <v>576319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="str">
+        <f>'Sheet 1'!A22</f>
+        <v>Estonia</v>
+      </c>
+      <c r="B10" s="21">
+        <f>'Sheet 1'!B22</f>
+        <v>4406</v>
+      </c>
+      <c r="C10" s="21">
+        <f>'Sheet 1'!D22</f>
+        <v>4658</v>
+      </c>
+      <c r="D10" s="21">
+        <f>'Sheet 1'!F22</f>
+        <v>5294</v>
+      </c>
+      <c r="E10" s="21">
+        <f>'Sheet 1'!H22</f>
+        <v>6214</v>
+      </c>
+      <c r="F10" s="21">
+        <f>'Sheet 1'!J22</f>
+        <v>6321</v>
+      </c>
+      <c r="G10" s="21">
+        <f>'Sheet 1'!L22</f>
+        <v>6740</v>
+      </c>
+      <c r="H10" s="21">
+        <f>'Sheet 1'!N22</f>
+        <v>4637</v>
+      </c>
+      <c r="I10" s="21">
+        <f>'Sheet 1'!P22</f>
+        <v>13003</v>
+      </c>
+      <c r="J10" s="21">
+        <f>'Sheet 1'!R22</f>
+        <v>13792</v>
+      </c>
+      <c r="K10" s="21">
+        <f>'Sheet 1'!T22</f>
+        <v>12358</v>
+      </c>
+      <c r="L10" s="21">
+        <f>'Sheet 1'!V22</f>
+        <v>10476</v>
+      </c>
+      <c r="M10" s="21">
+        <f>'Sheet 1'!X22</f>
+        <v>12801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="str">
+        <f>'Sheet 1'!A23</f>
+        <v>Ireland</v>
+      </c>
+      <c r="B11" s="21">
+        <f>'Sheet 1'!B23</f>
+        <v>65934</v>
+      </c>
+      <c r="C11" s="21">
+        <f>'Sheet 1'!D23</f>
+        <v>69672</v>
+      </c>
+      <c r="D11" s="21">
+        <f>'Sheet 1'!F23</f>
+        <v>78099</v>
+      </c>
+      <c r="E11" s="21">
+        <f>'Sheet 1'!H23</f>
+        <v>83049</v>
+      </c>
+      <c r="F11" s="21">
+        <f>'Sheet 1'!J23</f>
+        <v>81797</v>
+      </c>
+      <c r="G11" s="21">
+        <f>'Sheet 1'!L23</f>
+        <v>76560</v>
+      </c>
+      <c r="H11" s="21">
+        <f>'Sheet 1'!N23</f>
+        <v>71107</v>
+      </c>
+      <c r="I11" s="21">
+        <f>'Sheet 1'!P23</f>
+        <v>67160</v>
+      </c>
+      <c r="J11" s="21">
+        <f>'Sheet 1'!R23</f>
+        <v>62056</v>
+      </c>
+      <c r="K11" s="21">
+        <f>'Sheet 1'!T23</f>
+        <v>64068</v>
+      </c>
+      <c r="L11" s="21">
+        <f>'Sheet 1'!V23</f>
+        <v>53735</v>
+      </c>
+      <c r="M11" s="21">
+        <f>'Sheet 1'!X23</f>
+        <v>62004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>'Sheet 1'!A24</f>
+        <v>Greece</v>
+      </c>
+      <c r="B12" s="21">
+        <f>'Sheet 1'!B24</f>
+        <v>43044</v>
+      </c>
+      <c r="C12" s="21">
+        <f>'Sheet 1'!D24</f>
+        <v>43686</v>
+      </c>
+      <c r="D12" s="21">
+        <f>'Sheet 1'!F24</f>
+        <v>62041</v>
+      </c>
+      <c r="E12" s="21">
+        <f>'Sheet 1'!H24</f>
+        <v>92404</v>
+      </c>
+      <c r="F12" s="21">
+        <f>'Sheet 1'!J24</f>
+        <v>124694</v>
+      </c>
+      <c r="G12" s="21">
+        <f>'Sheet 1'!L24</f>
+        <v>117094</v>
+      </c>
+      <c r="H12" s="21">
+        <f>'Sheet 1'!N24</f>
+        <v>106804</v>
+      </c>
+      <c r="I12" s="21">
+        <f>'Sheet 1'!P24</f>
+        <v>109351</v>
+      </c>
+      <c r="J12" s="21">
+        <f>'Sheet 1'!R24</f>
+        <v>106535</v>
+      </c>
+      <c r="K12" s="21">
+        <f>'Sheet 1'!T24</f>
+        <v>103327</v>
+      </c>
+      <c r="L12" s="21">
+        <f>'Sheet 1'!V24</f>
+        <v>103049</v>
+      </c>
+      <c r="M12" s="21">
+        <f>'Sheet 1'!X24</f>
+        <v>95020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
+        <f>'Sheet 1'!A25</f>
+        <v>Spain</v>
+      </c>
+      <c r="B13" s="21">
+        <f>'Sheet 1'!B25</f>
+        <v>288432</v>
+      </c>
+      <c r="C13" s="21">
+        <f>'Sheet 1'!D25</f>
+        <v>380121</v>
+      </c>
+      <c r="D13" s="21">
+        <f>'Sheet 1'!F25</f>
+        <v>403377</v>
+      </c>
+      <c r="E13" s="21">
+        <f>'Sheet 1'!H25</f>
+        <v>409034</v>
+      </c>
+      <c r="F13" s="21">
+        <f>'Sheet 1'!J25</f>
+        <v>446606</v>
+      </c>
+      <c r="G13" s="21">
+        <f>'Sheet 1'!L25</f>
+        <v>532303</v>
+      </c>
+      <c r="H13" s="21">
+        <f>'Sheet 1'!N25</f>
+        <v>400430</v>
+      </c>
+      <c r="I13" s="21">
+        <f>'Sheet 1'!P25</f>
+        <v>343875</v>
+      </c>
+      <c r="J13" s="21">
+        <f>'Sheet 1'!R25</f>
+        <v>327325</v>
+      </c>
+      <c r="K13" s="21">
+        <f>'Sheet 1'!T25</f>
+        <v>368860</v>
+      </c>
+      <c r="L13" s="21">
+        <f>'Sheet 1'!V25</f>
+        <v>309526</v>
+      </c>
+      <c r="M13" s="21">
+        <f>'Sheet 1'!X25</f>
+        <v>296248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>'Sheet 1'!A26</f>
+        <v>France</v>
+      </c>
+      <c r="B14" s="21">
+        <f>'Sheet 1'!B26</f>
+        <v>239796</v>
+      </c>
+      <c r="C14" s="21">
+        <f>'Sheet 1'!D26</f>
+        <v>264631</v>
+      </c>
+      <c r="D14" s="21">
+        <f>'Sheet 1'!F26</f>
+        <v>269531</v>
+      </c>
+      <c r="E14" s="21">
+        <f>'Sheet 1'!H26</f>
+        <v>291594</v>
+      </c>
+      <c r="F14" s="21">
+        <f>'Sheet 1'!J26</f>
+        <v>255922</v>
+      </c>
+      <c r="G14" s="21">
+        <f>'Sheet 1'!L26</f>
+        <v>239813</v>
+      </c>
+      <c r="H14" s="21">
+        <f>'Sheet 1'!N26</f>
+        <v>308103</v>
+      </c>
+      <c r="I14" s="21">
+        <f>'Sheet 1'!P26</f>
+        <v>324517</v>
+      </c>
+      <c r="J14" s="21">
+        <f>'Sheet 1'!R26</f>
+        <v>313622</v>
+      </c>
+      <c r="K14" s="21">
+        <f>'Sheet 1'!T26</f>
+        <v>215470</v>
+      </c>
+      <c r="L14" s="21">
+        <f>'Sheet 1'!V26</f>
+        <v>300668</v>
+      </c>
+      <c r="M14" s="21">
+        <f>'Sheet 1'!X26</f>
+        <v>299101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
+        <f>'Sheet 1'!A27</f>
+        <v>Croatia</v>
+      </c>
+      <c r="B15" s="21">
+        <f>'Sheet 1'!B27</f>
+        <v>10638</v>
+      </c>
+      <c r="C15" s="21">
+        <f>'Sheet 1'!D27</f>
+        <v>12355</v>
+      </c>
+      <c r="D15" s="21">
+        <f>'Sheet 1'!F27</f>
+        <v>13017</v>
+      </c>
+      <c r="E15" s="21">
+        <f>'Sheet 1'!H27</f>
+        <v>12699</v>
+      </c>
+      <c r="F15" s="21">
+        <f>'Sheet 1'!J27</f>
+        <v>12877</v>
+      </c>
+      <c r="G15" s="21">
+        <f>'Sheet 1'!L27</f>
+        <v>15262</v>
+      </c>
+      <c r="H15" s="21">
+        <f>'Sheet 1'!N27</f>
+        <v>20858</v>
+      </c>
+      <c r="I15" s="21">
+        <f>'Sheet 1'!P27</f>
+        <v>29651</v>
+      </c>
+      <c r="J15" s="21">
+        <f>'Sheet 1'!R27</f>
+        <v>36436</v>
+      </c>
+      <c r="K15" s="21">
+        <f>'Sheet 1'!T27</f>
+        <v>47352</v>
+      </c>
+      <c r="L15" s="21">
+        <f>'Sheet 1'!V27</f>
+        <v>39515</v>
+      </c>
+      <c r="M15" s="21">
+        <f>'Sheet 1'!X27</f>
+        <v>40148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
+        <f>'Sheet 1'!A28</f>
+        <v>Italy</v>
+      </c>
+      <c r="B16" s="21">
+        <f>'Sheet 1'!B28</f>
+        <v>80947</v>
+      </c>
+      <c r="C16" s="21">
+        <f>'Sheet 1'!D28</f>
+        <v>80597</v>
+      </c>
+      <c r="D16" s="21">
+        <f>'Sheet 1'!F28</f>
+        <v>78771</v>
+      </c>
+      <c r="E16" s="21">
+        <f>'Sheet 1'!H28</f>
+        <v>82461</v>
+      </c>
+      <c r="F16" s="21">
+        <f>'Sheet 1'!J28</f>
+        <v>106216</v>
+      </c>
+      <c r="G16" s="21">
+        <f>'Sheet 1'!L28</f>
+        <v>125735</v>
+      </c>
+      <c r="H16" s="21">
+        <f>'Sheet 1'!N28</f>
+        <v>136328</v>
+      </c>
+      <c r="I16" s="21">
+        <f>'Sheet 1'!P28</f>
+        <v>146955</v>
+      </c>
+      <c r="J16" s="21">
+        <f>'Sheet 1'!R28</f>
+        <v>157065</v>
+      </c>
+      <c r="K16" s="21">
+        <f>'Sheet 1'!T28</f>
+        <v>155110</v>
+      </c>
+      <c r="L16" s="21">
+        <f>'Sheet 1'!V28</f>
+        <v>156960</v>
+      </c>
+      <c r="M16" s="21">
+        <f>'Sheet 1'!X28</f>
+        <v>179505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="str">
+        <f>'Sheet 1'!A29</f>
+        <v>Cyprus</v>
+      </c>
+      <c r="B17" s="21">
+        <f>'Sheet 1'!B29</f>
+        <v>4474</v>
+      </c>
+      <c r="C17" s="21">
+        <f>'Sheet 1'!D29</f>
+        <v>4797</v>
+      </c>
+      <c r="D17" s="21">
+        <f>'Sheet 1'!F29</f>
+        <v>4293</v>
+      </c>
+      <c r="E17" s="21">
+        <f>'Sheet 1'!H29</f>
+        <v>4895</v>
+      </c>
+      <c r="F17" s="21">
+        <f>'Sheet 1'!J29</f>
+        <v>18105</v>
+      </c>
+      <c r="G17" s="21">
+        <f>'Sheet 1'!L29</f>
+        <v>25227</v>
+      </c>
+      <c r="H17" s="21">
+        <f>'Sheet 1'!N29</f>
+        <v>24038</v>
+      </c>
+      <c r="I17" s="21">
+        <f>'Sheet 1'!P29</f>
+        <v>17183</v>
+      </c>
+      <c r="J17" s="21">
+        <f>'Sheet 1'!R29</f>
+        <v>14892</v>
+      </c>
+      <c r="K17" s="21">
+        <f>'Sheet 1'!T29</f>
+        <v>15105</v>
+      </c>
+      <c r="L17" s="21">
+        <f>'Sheet 1'!V29</f>
+        <v>15340</v>
+      </c>
+      <c r="M17" s="21">
+        <f>'Sheet 1'!X29</f>
+        <v>17373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="str">
+        <f>'Sheet 1'!A30</f>
+        <v>Latvia</v>
+      </c>
+      <c r="B18" s="21">
+        <f>'Sheet 1'!B30</f>
+        <v>27045</v>
+      </c>
+      <c r="C18" s="21">
+        <f>'Sheet 1'!D30</f>
+        <v>38208</v>
+      </c>
+      <c r="D18" s="21">
+        <f>'Sheet 1'!F30</f>
+        <v>39651</v>
+      </c>
+      <c r="E18" s="21">
+        <f>'Sheet 1'!H30</f>
+        <v>30311</v>
+      </c>
+      <c r="F18" s="21">
+        <f>'Sheet 1'!J30</f>
+        <v>25163</v>
+      </c>
+      <c r="G18" s="21">
+        <f>'Sheet 1'!L30</f>
+        <v>22561</v>
+      </c>
+      <c r="H18" s="21">
+        <f>'Sheet 1'!N30</f>
+        <v>19017</v>
+      </c>
+      <c r="I18" s="21">
+        <f>'Sheet 1'!P30</f>
+        <v>20119</v>
+      </c>
+      <c r="J18" s="21">
+        <f>'Sheet 1'!R30</f>
+        <v>20574</v>
+      </c>
+      <c r="K18" s="21">
+        <f>'Sheet 1'!T30</f>
+        <v>17724</v>
+      </c>
+      <c r="L18" s="21">
+        <f>'Sheet 1'!V30</f>
+        <v>15814</v>
+      </c>
+      <c r="M18" s="21">
+        <f>'Sheet 1'!X30</f>
+        <v>14583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="str">
+        <f>'Sheet 1'!A31</f>
+        <v>Lithuania</v>
+      </c>
+      <c r="B19" s="21">
+        <f>'Sheet 1'!B31</f>
+        <v>25750</v>
+      </c>
+      <c r="C19" s="21">
+        <f>'Sheet 1'!D31</f>
+        <v>38500</v>
+      </c>
+      <c r="D19" s="21">
+        <f>'Sheet 1'!F31</f>
+        <v>83157</v>
+      </c>
+      <c r="E19" s="21">
+        <f>'Sheet 1'!H31</f>
+        <v>53863</v>
+      </c>
+      <c r="F19" s="21">
+        <f>'Sheet 1'!J31</f>
+        <v>41100</v>
+      </c>
+      <c r="G19" s="21">
+        <f>'Sheet 1'!L31</f>
+        <v>38818</v>
+      </c>
+      <c r="H19" s="21">
+        <f>'Sheet 1'!N31</f>
+        <v>36621</v>
+      </c>
+      <c r="I19" s="21">
+        <f>'Sheet 1'!P31</f>
+        <v>44533</v>
+      </c>
+      <c r="J19" s="21">
+        <f>'Sheet 1'!R31</f>
+        <v>50333</v>
+      </c>
+      <c r="K19" s="21">
+        <f>'Sheet 1'!T31</f>
+        <v>47925</v>
+      </c>
+      <c r="L19" s="21">
+        <f>'Sheet 1'!V31</f>
+        <v>32206</v>
+      </c>
+      <c r="M19" s="21">
+        <f>'Sheet 1'!X31</f>
+        <v>29273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="str">
+        <f>'Sheet 1'!A32</f>
+        <v>Luxembourg</v>
+      </c>
+      <c r="B20" s="21">
+        <f>'Sheet 1'!B32</f>
+        <v>10058</v>
+      </c>
+      <c r="C20" s="21">
+        <f>'Sheet 1'!D32</f>
+        <v>9168</v>
+      </c>
+      <c r="D20" s="21">
+        <f>'Sheet 1'!F32</f>
+        <v>9302</v>
+      </c>
+      <c r="E20" s="21">
+        <f>'Sheet 1'!H32</f>
+        <v>9264</v>
+      </c>
+      <c r="F20" s="21">
+        <f>'Sheet 1'!J32</f>
+        <v>10442</v>
+      </c>
+      <c r="G20" s="21">
+        <f>'Sheet 1'!L32</f>
+        <v>10750</v>
+      </c>
+      <c r="H20" s="21">
+        <f>'Sheet 1'!N32</f>
+        <v>11283</v>
+      </c>
+      <c r="I20" s="21">
+        <f>'Sheet 1'!P32</f>
+        <v>12644</v>
+      </c>
+      <c r="J20" s="21">
+        <f>'Sheet 1'!R32</f>
+        <v>13442</v>
+      </c>
+      <c r="K20" s="21">
+        <f>'Sheet 1'!T32</f>
+        <v>13831</v>
+      </c>
+      <c r="L20" s="21">
+        <f>'Sheet 1'!V32</f>
+        <v>13985</v>
+      </c>
+      <c r="M20" s="21">
+        <f>'Sheet 1'!X32</f>
+        <v>15593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="str">
+        <f>'Sheet 1'!A33</f>
+        <v>Hungary</v>
+      </c>
+      <c r="B21" s="21">
+        <f>'Sheet 1'!B33</f>
+        <v>9591</v>
+      </c>
+      <c r="C21" s="21">
+        <f>'Sheet 1'!D33</f>
+        <v>10483</v>
+      </c>
+      <c r="D21" s="21">
+        <f>'Sheet 1'!F33</f>
+        <v>13365</v>
+      </c>
+      <c r="E21" s="21">
+        <f>'Sheet 1'!H33</f>
+        <v>15100</v>
+      </c>
+      <c r="F21" s="21">
+        <f>'Sheet 1'!J33</f>
+        <v>22880</v>
+      </c>
+      <c r="G21" s="21">
+        <f>'Sheet 1'!L33</f>
+        <v>34691</v>
+      </c>
+      <c r="H21" s="21">
+        <f>'Sheet 1'!N33</f>
+        <v>42213</v>
+      </c>
+      <c r="I21" s="21">
+        <f>'Sheet 1'!P33</f>
+        <v>43225</v>
+      </c>
+      <c r="J21" s="21">
+        <f>'Sheet 1'!R33</f>
+        <v>39889</v>
+      </c>
+      <c r="K21" s="21">
+        <f>'Sheet 1'!T33</f>
+        <v>39829</v>
+      </c>
+      <c r="L21" s="21">
+        <f>'Sheet 1'!V33</f>
+        <v>48178</v>
+      </c>
+      <c r="M21" s="21">
+        <f>'Sheet 1'!X33</f>
+        <v>49795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="str">
+        <f>'Sheet 1'!A34</f>
+        <v>Malta</v>
+      </c>
+      <c r="B22" s="21">
+        <f>'Sheet 1'!B34</f>
+        <v>3719</v>
+      </c>
+      <c r="C22" s="21">
+        <f>'Sheet 1'!D34</f>
+        <v>3868</v>
+      </c>
+      <c r="D22" s="21">
+        <f>'Sheet 1'!F34</f>
+        <v>4201</v>
+      </c>
+      <c r="E22" s="21">
+        <f>'Sheet 1'!H34</f>
+        <v>3806</v>
+      </c>
+      <c r="F22" s="21">
+        <f>'Sheet 1'!J34</f>
+        <v>4005</v>
+      </c>
+      <c r="G22" s="21">
+        <f>'Sheet 1'!L34</f>
+        <v>4778</v>
+      </c>
+      <c r="H22" s="21">
+        <f>'Sheet 1'!N34</f>
+        <v>5108</v>
+      </c>
+      <c r="I22" s="21">
+        <f>'Sheet 1'!P34</f>
+        <v>7095</v>
+      </c>
+      <c r="J22" s="21">
+        <f>'Sheet 1'!R34</f>
+        <v>8303</v>
+      </c>
+      <c r="K22" s="21">
+        <f>'Sheet 1'!T34</f>
+        <v>7020</v>
+      </c>
+      <c r="L22" s="21">
+        <f>'Sheet 1'!V34</f>
+        <v>9342</v>
+      </c>
+      <c r="M22" s="21">
+        <f>'Sheet 1'!X34</f>
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="str">
+        <f>'Sheet 1'!A35</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="B23" s="21">
+        <f>'Sheet 1'!B35</f>
+        <v>90067</v>
+      </c>
+      <c r="C23" s="21">
+        <f>'Sheet 1'!D35</f>
+        <v>92825</v>
+      </c>
+      <c r="D23" s="21">
+        <f>'Sheet 1'!F35</f>
+        <v>95970</v>
+      </c>
+      <c r="E23" s="21">
+        <f>'Sheet 1'!H35</f>
+        <v>104201</v>
+      </c>
+      <c r="F23" s="21">
+        <f>'Sheet 1'!J35</f>
+        <v>110431</v>
+      </c>
+      <c r="G23" s="21">
+        <f>'Sheet 1'!L35</f>
+        <v>112625</v>
+      </c>
+      <c r="H23" s="21">
+        <f>'Sheet 1'!N35</f>
+        <v>112900</v>
+      </c>
+      <c r="I23" s="21">
+        <f>'Sheet 1'!P35</f>
+        <v>112330</v>
+      </c>
+      <c r="J23" s="21">
+        <f>'Sheet 1'!R35</f>
+        <v>111477</v>
+      </c>
+      <c r="K23" s="21">
+        <f>'Sheet 1'!T35</f>
+        <v>108231</v>
+      </c>
+      <c r="L23" s="21">
+        <f>'Sheet 1'!V35</f>
+        <v>109635</v>
+      </c>
+      <c r="M23" s="21">
+        <f>'Sheet 1'!X35</f>
+        <v>107906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="str">
+        <f>'Sheet 1'!A36</f>
+        <v>Austria</v>
+      </c>
+      <c r="B24" s="21">
+        <f>'Sheet 1'!B36</f>
+        <v>51563</v>
+      </c>
+      <c r="C24" s="21">
+        <f>'Sheet 1'!D36</f>
+        <v>53244</v>
+      </c>
+      <c r="D24" s="21">
+        <f>'Sheet 1'!F36</f>
+        <v>51651</v>
+      </c>
+      <c r="E24" s="21">
+        <f>'Sheet 1'!H36</f>
+        <v>51197</v>
+      </c>
+      <c r="F24" s="21">
+        <f>'Sheet 1'!J36</f>
+        <v>51812</v>
+      </c>
+      <c r="G24" s="21">
+        <f>'Sheet 1'!L36</f>
+        <v>54071</v>
+      </c>
+      <c r="H24" s="21">
+        <f>'Sheet 1'!N36</f>
+        <v>53491</v>
+      </c>
+      <c r="I24" s="21">
+        <f>'Sheet 1'!P36</f>
+        <v>56689</v>
+      </c>
+      <c r="J24" s="21">
+        <f>'Sheet 1'!R36</f>
+        <v>64428</v>
+      </c>
+      <c r="K24" s="21">
+        <f>'Sheet 1'!T36</f>
+        <v>66144</v>
+      </c>
+      <c r="L24" s="21">
+        <f>'Sheet 1'!V36</f>
+        <v>67212</v>
+      </c>
+      <c r="M24" s="21">
+        <f>'Sheet 1'!X36</f>
+        <v>68280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>'Sheet 1'!A37</f>
+        <v>Poland</v>
+      </c>
+      <c r="B25" s="21">
+        <f>'Sheet 1'!B37</f>
+        <v>30140</v>
+      </c>
+      <c r="C25" s="21">
+        <f>'Sheet 1'!D37</f>
+        <v>229320</v>
+      </c>
+      <c r="D25" s="21">
+        <f>'Sheet 1'!F37</f>
+        <v>218126</v>
+      </c>
+      <c r="E25" s="21">
+        <f>'Sheet 1'!H37</f>
+        <v>265798</v>
+      </c>
+      <c r="F25" s="21">
+        <f>'Sheet 1'!J37</f>
+        <v>275603</v>
+      </c>
+      <c r="G25" s="21">
+        <f>'Sheet 1'!L37</f>
+        <v>276446</v>
+      </c>
+      <c r="H25" s="21">
+        <f>'Sheet 1'!N37</f>
+        <v>268299</v>
+      </c>
+      <c r="I25" s="21">
+        <f>'Sheet 1'!P37</f>
+        <v>258837</v>
+      </c>
+      <c r="J25" s="21">
+        <f>'Sheet 1'!R37</f>
+        <v>236441</v>
+      </c>
+      <c r="K25" s="21">
+        <f>'Sheet 1'!T37</f>
+        <v>218492</v>
+      </c>
+      <c r="L25" s="21">
+        <f>'Sheet 1'!V37</f>
+        <v>189794</v>
+      </c>
+      <c r="M25" s="21">
+        <f>'Sheet 1'!X37</f>
+        <v>180594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="str">
+        <f>'Sheet 1'!A38</f>
+        <v>Portugal</v>
+      </c>
+      <c r="B26" s="21">
+        <f>'Sheet 1'!B38</f>
+        <v>20357</v>
+      </c>
+      <c r="C26" s="21">
+        <f>'Sheet 1'!D38</f>
+        <v>16899</v>
+      </c>
+      <c r="D26" s="21">
+        <f>'Sheet 1'!F38</f>
+        <v>23760</v>
+      </c>
+      <c r="E26" s="21">
+        <f>'Sheet 1'!H38</f>
+        <v>43998</v>
+      </c>
+      <c r="F26" s="21">
+        <f>'Sheet 1'!J38</f>
+        <v>51958</v>
+      </c>
+      <c r="G26" s="21">
+        <f>'Sheet 1'!L38</f>
+        <v>53786</v>
+      </c>
+      <c r="H26" s="21">
+        <f>'Sheet 1'!N38</f>
+        <v>49572</v>
+      </c>
+      <c r="I26" s="21">
+        <f>'Sheet 1'!P38</f>
+        <v>40377</v>
+      </c>
+      <c r="J26" s="21">
+        <f>'Sheet 1'!R38</f>
+        <v>38273</v>
+      </c>
+      <c r="K26" s="21">
+        <f>'Sheet 1'!T38</f>
+        <v>31753</v>
+      </c>
+      <c r="L26" s="21">
+        <f>'Sheet 1'!V38</f>
+        <v>31600</v>
+      </c>
+      <c r="M26" s="21">
+        <f>'Sheet 1'!X38</f>
+        <v>28219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="str">
+        <f>'Sheet 1'!A39</f>
+        <v>Romania</v>
+      </c>
+      <c r="B27" s="21">
+        <f>'Sheet 1'!B39</f>
+        <v>302796</v>
+      </c>
+      <c r="C27" s="21">
+        <f>'Sheet 1'!D39</f>
+        <v>246626</v>
+      </c>
+      <c r="D27" s="21">
+        <f>'Sheet 1'!F39</f>
+        <v>197985</v>
+      </c>
+      <c r="E27" s="21">
+        <f>'Sheet 1'!H39</f>
+        <v>195551</v>
+      </c>
+      <c r="F27" s="21">
+        <f>'Sheet 1'!J39</f>
+        <v>170186</v>
+      </c>
+      <c r="G27" s="21">
+        <f>'Sheet 1'!L39</f>
+        <v>161755</v>
+      </c>
+      <c r="H27" s="21">
+        <f>'Sheet 1'!N39</f>
+        <v>172871</v>
+      </c>
+      <c r="I27" s="21">
+        <f>'Sheet 1'!P39</f>
+        <v>194718</v>
+      </c>
+      <c r="J27" s="21">
+        <f>'Sheet 1'!R39</f>
+        <v>207578</v>
+      </c>
+      <c r="K27" s="21">
+        <f>'Sheet 1'!T39</f>
+        <v>242193</v>
+      </c>
+      <c r="L27" s="21">
+        <f>'Sheet 1'!V39</f>
+        <v>231661</v>
+      </c>
+      <c r="M27" s="21">
+        <f>'Sheet 1'!X39</f>
+        <v>233736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="str">
+        <f>'Sheet 1'!A40</f>
+        <v>Slovenia</v>
+      </c>
+      <c r="B28" s="21">
+        <f>'Sheet 1'!B40</f>
+        <v>12109</v>
+      </c>
+      <c r="C28" s="21">
+        <f>'Sheet 1'!D40</f>
+        <v>18788</v>
+      </c>
+      <c r="D28" s="21">
+        <f>'Sheet 1'!F40</f>
+        <v>15937</v>
+      </c>
+      <c r="E28" s="21">
+        <f>'Sheet 1'!H40</f>
+        <v>12024</v>
+      </c>
+      <c r="F28" s="21">
+        <f>'Sheet 1'!J40</f>
+        <v>14378</v>
+      </c>
+      <c r="G28" s="21">
+        <f>'Sheet 1'!L40</f>
+        <v>13384</v>
+      </c>
+      <c r="H28" s="21">
+        <f>'Sheet 1'!N40</f>
+        <v>14336</v>
+      </c>
+      <c r="I28" s="21">
+        <f>'Sheet 1'!P40</f>
+        <v>14913</v>
+      </c>
+      <c r="J28" s="21">
+        <f>'Sheet 1'!R40</f>
+        <v>15572</v>
+      </c>
+      <c r="K28" s="21">
+        <f>'Sheet 1'!T40</f>
+        <v>17555</v>
+      </c>
+      <c r="L28" s="21">
+        <f>'Sheet 1'!V40</f>
+        <v>13527</v>
+      </c>
+      <c r="M28" s="21">
+        <f>'Sheet 1'!X40</f>
+        <v>15106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="str">
+        <f>'Sheet 1'!A41</f>
+        <v>Slovakia</v>
+      </c>
+      <c r="B29" s="21">
+        <f>'Sheet 1'!B41</f>
+        <v>1705</v>
+      </c>
+      <c r="C29" s="21">
+        <f>'Sheet 1'!D41</f>
+        <v>1979</v>
+      </c>
+      <c r="D29" s="21">
+        <f>'Sheet 1'!F41</f>
+        <v>1889</v>
+      </c>
+      <c r="E29" s="21">
+        <f>'Sheet 1'!H41</f>
+        <v>1863</v>
+      </c>
+      <c r="F29" s="21">
+        <f>'Sheet 1'!J41</f>
+        <v>2003</v>
+      </c>
+      <c r="G29" s="21">
+        <f>'Sheet 1'!L41</f>
+        <v>2770</v>
+      </c>
+      <c r="H29" s="21">
+        <f>'Sheet 1'!N41</f>
+        <v>3644</v>
+      </c>
+      <c r="I29" s="21">
+        <f>'Sheet 1'!P41</f>
+        <v>3870</v>
+      </c>
+      <c r="J29" s="21">
+        <f>'Sheet 1'!R41</f>
+        <v>3801</v>
+      </c>
+      <c r="K29" s="21">
+        <f>'Sheet 1'!T41</f>
+        <v>3466</v>
+      </c>
+      <c r="L29" s="21">
+        <f>'Sheet 1'!V41</f>
+        <v>3298</v>
+      </c>
+      <c r="M29" s="21">
+        <f>'Sheet 1'!X41</f>
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="str">
+        <f>'Sheet 1'!A42</f>
+        <v>Finland</v>
+      </c>
+      <c r="B30" s="21">
+        <f>'Sheet 1'!B42</f>
+        <v>13657</v>
+      </c>
+      <c r="C30" s="21">
+        <f>'Sheet 1'!D42</f>
+        <v>12151</v>
+      </c>
+      <c r="D30" s="21">
+        <f>'Sheet 1'!F42</f>
+        <v>11905</v>
+      </c>
+      <c r="E30" s="21">
+        <f>'Sheet 1'!H42</f>
+        <v>12660</v>
+      </c>
+      <c r="F30" s="21">
+        <f>'Sheet 1'!J42</f>
+        <v>13845</v>
+      </c>
+      <c r="G30" s="21">
+        <f>'Sheet 1'!L42</f>
+        <v>13893</v>
+      </c>
+      <c r="H30" s="21">
+        <f>'Sheet 1'!N42</f>
+        <v>15486</v>
+      </c>
+      <c r="I30" s="21">
+        <f>'Sheet 1'!P42</f>
+        <v>16305</v>
+      </c>
+      <c r="J30" s="21">
+        <f>'Sheet 1'!R42</f>
+        <v>18082</v>
+      </c>
+      <c r="K30" s="21">
+        <f>'Sheet 1'!T42</f>
+        <v>16973</v>
+      </c>
+      <c r="L30" s="21">
+        <f>'Sheet 1'!V42</f>
+        <v>19141</v>
+      </c>
+      <c r="M30" s="21">
+        <f>'Sheet 1'!X42</f>
+        <v>17263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="str">
+        <f>'Sheet 1'!A43</f>
+        <v>Sweden</v>
+      </c>
+      <c r="B31" s="21">
+        <f>'Sheet 1'!B43</f>
+        <v>45294</v>
+      </c>
+      <c r="C31" s="21">
+        <f>'Sheet 1'!D43</f>
+        <v>39240</v>
+      </c>
+      <c r="D31" s="21">
+        <f>'Sheet 1'!F43</f>
+        <v>48853</v>
+      </c>
+      <c r="E31" s="21">
+        <f>'Sheet 1'!H43</f>
+        <v>51179</v>
+      </c>
+      <c r="F31" s="21">
+        <f>'Sheet 1'!J43</f>
+        <v>51747</v>
+      </c>
+      <c r="G31" s="21">
+        <f>'Sheet 1'!L43</f>
+        <v>50715</v>
+      </c>
+      <c r="H31" s="21">
+        <f>'Sheet 1'!N43</f>
+        <v>51237</v>
+      </c>
+      <c r="I31" s="21">
+        <f>'Sheet 1'!P43</f>
+        <v>55830</v>
+      </c>
+      <c r="J31" s="21">
+        <f>'Sheet 1'!R43</f>
+        <v>45878</v>
+      </c>
+      <c r="K31" s="21">
+        <f>'Sheet 1'!T43</f>
+        <v>45620</v>
+      </c>
+      <c r="L31" s="21">
+        <f>'Sheet 1'!V43</f>
+        <v>46981</v>
+      </c>
+      <c r="M31" s="21">
+        <f>'Sheet 1'!X43</f>
+        <v>47718</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="str">
+        <f>'Sheet 1'!A44</f>
+        <v>Iceland</v>
+      </c>
+      <c r="B32" s="21">
+        <f>'Sheet 1'!B44</f>
+        <v>9144</v>
+      </c>
+      <c r="C32" s="21">
+        <f>'Sheet 1'!D44</f>
+        <v>6874</v>
+      </c>
+      <c r="D32" s="21">
+        <f>'Sheet 1'!F44</f>
+        <v>5459</v>
+      </c>
+      <c r="E32" s="21">
+        <f>'Sheet 1'!H44</f>
+        <v>4812</v>
+      </c>
+      <c r="F32" s="21">
+        <f>'Sheet 1'!J44</f>
+        <v>4758</v>
+      </c>
+      <c r="G32" s="21">
+        <f>'Sheet 1'!L44</f>
+        <v>4372</v>
+      </c>
+      <c r="H32" s="21">
+        <f>'Sheet 1'!N44</f>
+        <v>4052</v>
+      </c>
+      <c r="I32" s="21">
+        <f>'Sheet 1'!P44</f>
+        <v>4046</v>
+      </c>
+      <c r="J32" s="21">
+        <f>'Sheet 1'!R44</f>
+        <v>4159</v>
+      </c>
+      <c r="K32" s="21">
+        <f>'Sheet 1'!T44</f>
+        <v>3641</v>
+      </c>
+      <c r="L32" s="21">
+        <f>'Sheet 1'!V44</f>
+        <v>4372</v>
+      </c>
+      <c r="M32" s="21">
+        <f>'Sheet 1'!X44</f>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="str">
+        <f>'Sheet 1'!A45</f>
+        <v>Liechtenstein</v>
+      </c>
+      <c r="B33" s="21">
+        <f>'Sheet 1'!B45</f>
+        <v>490</v>
+      </c>
+      <c r="C33" s="21">
+        <f>'Sheet 1'!D45</f>
+        <v>455</v>
+      </c>
+      <c r="D33" s="21">
+        <f>'Sheet 1'!F45</f>
+        <v>428</v>
+      </c>
+      <c r="E33" s="21">
+        <f>'Sheet 1'!H45</f>
+        <v>467</v>
+      </c>
+      <c r="F33" s="21">
+        <f>'Sheet 1'!J45</f>
+        <v>439</v>
+      </c>
+      <c r="G33" s="21">
+        <f>'Sheet 1'!L45</f>
+        <v>497</v>
+      </c>
+      <c r="H33" s="21">
+        <f>'Sheet 1'!N45</f>
+        <v>476</v>
+      </c>
+      <c r="I33" s="21">
+        <f>'Sheet 1'!P45</f>
+        <v>468</v>
+      </c>
+      <c r="J33" s="21">
+        <f>'Sheet 1'!R45</f>
+        <v>522</v>
+      </c>
+      <c r="K33" s="21">
+        <f>'Sheet 1'!T45</f>
+        <v>426</v>
+      </c>
+      <c r="L33" s="21">
+        <f>'Sheet 1'!V45</f>
+        <v>484</v>
+      </c>
+      <c r="M33" s="21">
+        <f>'Sheet 1'!X45</f>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="str">
+        <f>'Sheet 1'!A46</f>
+        <v>Norway</v>
+      </c>
+      <c r="B34" s="21">
+        <f>'Sheet 1'!B46</f>
+        <v>12976</v>
+      </c>
+      <c r="C34" s="21">
+        <f>'Sheet 1'!D46</f>
+        <v>17072</v>
+      </c>
+      <c r="D34" s="21">
+        <f>'Sheet 1'!F46</f>
+        <v>25835</v>
+      </c>
+      <c r="E34" s="21">
+        <f>'Sheet 1'!H46</f>
+        <v>20349</v>
+      </c>
+      <c r="F34" s="21">
+        <f>'Sheet 1'!J46</f>
+        <v>22693</v>
+      </c>
+      <c r="G34" s="21">
+        <f>'Sheet 1'!L46</f>
+        <v>26523</v>
+      </c>
+      <c r="H34" s="21">
+        <f>'Sheet 1'!N46</f>
+        <v>29308</v>
+      </c>
+      <c r="I34" s="21">
+        <f>'Sheet 1'!P46</f>
+        <v>29173</v>
+      </c>
+      <c r="J34" s="21">
+        <f>'Sheet 1'!R46</f>
+        <v>34694</v>
+      </c>
+      <c r="K34" s="21">
+        <f>'Sheet 1'!T46</f>
+        <v>31963</v>
+      </c>
+      <c r="L34" s="21">
+        <f>'Sheet 1'!V46</f>
+        <v>27158</v>
+      </c>
+      <c r="M34" s="21">
+        <f>'Sheet 1'!X46</f>
+        <v>23207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="str">
+        <f>'Sheet 1'!A47</f>
+        <v>Switzerland</v>
+      </c>
+      <c r="B35" s="21">
+        <f>'Sheet 1'!B47</f>
+        <v>86130</v>
+      </c>
+      <c r="C35" s="21">
+        <f>'Sheet 1'!D47</f>
+        <v>86036</v>
+      </c>
+      <c r="D35" s="21">
+        <f>'Sheet 1'!F47</f>
+        <v>96839</v>
+      </c>
+      <c r="E35" s="21">
+        <f>'Sheet 1'!H47</f>
+        <v>96494</v>
+      </c>
+      <c r="F35" s="21">
+        <f>'Sheet 1'!J47</f>
+        <v>103881</v>
+      </c>
+      <c r="G35" s="21">
+        <f>'Sheet 1'!L47</f>
+        <v>106196</v>
+      </c>
+      <c r="H35" s="21">
+        <f>'Sheet 1'!N47</f>
+        <v>111103</v>
+      </c>
+      <c r="I35" s="21">
+        <f>'Sheet 1'!P47</f>
+        <v>116631</v>
+      </c>
+      <c r="J35" s="21">
+        <f>'Sheet 1'!R47</f>
+        <v>120653</v>
+      </c>
+      <c r="K35" s="21">
+        <f>'Sheet 1'!T47</f>
+        <v>124997</v>
+      </c>
+      <c r="L35" s="21">
+        <f>'Sheet 1'!V47</f>
+        <v>130225</v>
+      </c>
+      <c r="M35" s="21">
+        <f>'Sheet 1'!X47</f>
+        <v>126221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="str">
+        <f>'Sheet 1'!A48</f>
+        <v>United Kingdom</v>
+      </c>
+      <c r="B36" s="21">
+        <f>'Sheet 1'!B48</f>
+        <v>427207</v>
+      </c>
+      <c r="C36" s="21">
+        <f>'Sheet 1'!D48</f>
+        <v>368177</v>
+      </c>
+      <c r="D36" s="21">
+        <f>'Sheet 1'!F48</f>
+        <v>339306</v>
+      </c>
+      <c r="E36" s="21">
+        <f>'Sheet 1'!H48</f>
+        <v>350703</v>
+      </c>
+      <c r="F36" s="21">
+        <f>'Sheet 1'!J48</f>
+        <v>321217</v>
+      </c>
+      <c r="G36" s="21">
+        <f>'Sheet 1'!L48</f>
+        <v>316934</v>
+      </c>
+      <c r="H36" s="21">
+        <f>'Sheet 1'!N48</f>
+        <v>319086</v>
+      </c>
+      <c r="I36" s="21">
+        <f>'Sheet 1'!P48</f>
+        <v>299183</v>
+      </c>
+      <c r="J36" s="21">
+        <f>'Sheet 1'!R48</f>
+        <v>340440</v>
+      </c>
+      <c r="K36" s="21">
+        <f>'Sheet 1'!T48</f>
+        <v>359665</v>
+      </c>
+      <c r="L36" s="21">
+        <f>'Sheet 1'!V48</f>
+        <v>344347</v>
+      </c>
+      <c r="M36" s="21">
+        <f>'Sheet 1'!X48</f>
+        <v>368385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="str">
+        <f>'Sheet 1'!A49</f>
+        <v>Montenegro</v>
+      </c>
+      <c r="B37" s="21" t="str">
+        <f>'Sheet 1'!B49</f>
+        <v>:</v>
+      </c>
+      <c r="C37" s="21" t="str">
+        <f>'Sheet 1'!D49</f>
+        <v>:</v>
+      </c>
+      <c r="D37" s="21" t="str">
+        <f>'Sheet 1'!F49</f>
+        <v>:</v>
+      </c>
+      <c r="E37" s="21" t="str">
+        <f>'Sheet 1'!H49</f>
+        <v>:</v>
+      </c>
+      <c r="F37" s="21" t="str">
+        <f>'Sheet 1'!J49</f>
+        <v>:</v>
+      </c>
+      <c r="G37" s="21" t="str">
+        <f>'Sheet 1'!L49</f>
+        <v>:</v>
+      </c>
+      <c r="H37" s="21" t="str">
+        <f>'Sheet 1'!N49</f>
+        <v>:</v>
+      </c>
+      <c r="I37" s="21" t="str">
+        <f>'Sheet 1'!P49</f>
+        <v>:</v>
+      </c>
+      <c r="J37" s="21" t="str">
+        <f>'Sheet 1'!R49</f>
+        <v>:</v>
+      </c>
+      <c r="K37" s="21" t="str">
+        <f>'Sheet 1'!T49</f>
+        <v>:</v>
+      </c>
+      <c r="L37" s="21" t="str">
+        <f>'Sheet 1'!V49</f>
+        <v>:</v>
+      </c>
+      <c r="M37" s="21" t="str">
+        <f>'Sheet 1'!X49</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="str">
+        <f>'Sheet 1'!A50</f>
+        <v>North Macedonia</v>
+      </c>
+      <c r="B38" s="21">
+        <f>'Sheet 1'!B50</f>
+        <v>751</v>
+      </c>
+      <c r="C38" s="21">
+        <f>'Sheet 1'!D50</f>
+        <v>792</v>
+      </c>
+      <c r="D38" s="21">
+        <f>'Sheet 1'!F50</f>
+        <v>1007</v>
+      </c>
+      <c r="E38" s="21">
+        <f>'Sheet 1'!H50</f>
+        <v>1290</v>
+      </c>
+      <c r="F38" s="21">
+        <f>'Sheet 1'!J50</f>
+        <v>1415</v>
+      </c>
+      <c r="G38" s="21">
+        <f>'Sheet 1'!L50</f>
+        <v>1041</v>
+      </c>
+      <c r="H38" s="21">
+        <f>'Sheet 1'!N50</f>
+        <v>839</v>
+      </c>
+      <c r="I38" s="21">
+        <f>'Sheet 1'!P50</f>
+        <v>1016</v>
+      </c>
+      <c r="J38" s="21">
+        <f>'Sheet 1'!R50</f>
+        <v>630</v>
+      </c>
+      <c r="K38" s="21">
+        <f>'Sheet 1'!T50</f>
+        <v>424</v>
+      </c>
+      <c r="L38" s="21">
+        <f>'Sheet 1'!V50</f>
+        <v>377</v>
+      </c>
+      <c r="M38" s="21">
+        <f>'Sheet 1'!X50</f>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="str">
+        <f>'Sheet 1'!A51</f>
+        <v>Albania</v>
+      </c>
+      <c r="B39" s="21" t="str">
+        <f>'Sheet 1'!B51</f>
+        <v>:</v>
+      </c>
+      <c r="C39" s="21" t="str">
+        <f>'Sheet 1'!D51</f>
+        <v>:</v>
+      </c>
+      <c r="D39" s="21" t="str">
+        <f>'Sheet 1'!F51</f>
+        <v>:</v>
+      </c>
+      <c r="E39" s="21" t="str">
+        <f>'Sheet 1'!H51</f>
+        <v>:</v>
+      </c>
+      <c r="F39" s="21" t="str">
+        <f>'Sheet 1'!J51</f>
+        <v>:</v>
+      </c>
+      <c r="G39" s="21" t="str">
+        <f>'Sheet 1'!L51</f>
+        <v>:</v>
+      </c>
+      <c r="H39" s="21" t="str">
+        <f>'Sheet 1'!N51</f>
+        <v>:</v>
+      </c>
+      <c r="I39" s="21" t="str">
+        <f>'Sheet 1'!P51</f>
+        <v>:</v>
+      </c>
+      <c r="J39" s="21" t="str">
+        <f>'Sheet 1'!R51</f>
+        <v>:</v>
+      </c>
+      <c r="K39" s="21" t="str">
+        <f>'Sheet 1'!T51</f>
+        <v>:</v>
+      </c>
+      <c r="L39" s="21" t="str">
+        <f>'Sheet 1'!V51</f>
+        <v>:</v>
+      </c>
+      <c r="M39" s="21" t="str">
+        <f>'Sheet 1'!X51</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="str">
+        <f>'Sheet 1'!A52</f>
+        <v>Serbia</v>
+      </c>
+      <c r="B40" s="21" t="str">
+        <f>'Sheet 1'!B52</f>
+        <v>:</v>
+      </c>
+      <c r="C40" s="21" t="str">
+        <f>'Sheet 1'!D52</f>
+        <v>:</v>
+      </c>
+      <c r="D40" s="21" t="str">
+        <f>'Sheet 1'!F52</f>
+        <v>:</v>
+      </c>
+      <c r="E40" s="21" t="str">
+        <f>'Sheet 1'!H52</f>
+        <v>:</v>
+      </c>
+      <c r="F40" s="21" t="str">
+        <f>'Sheet 1'!J52</f>
+        <v>:</v>
+      </c>
+      <c r="G40" s="21" t="str">
+        <f>'Sheet 1'!L52</f>
+        <v>:</v>
+      </c>
+      <c r="H40" s="21" t="str">
+        <f>'Sheet 1'!N52</f>
+        <v>:</v>
+      </c>
+      <c r="I40" s="21" t="str">
+        <f>'Sheet 1'!P52</f>
+        <v>:</v>
+      </c>
+      <c r="J40" s="21" t="str">
+        <f>'Sheet 1'!R52</f>
+        <v>:</v>
+      </c>
+      <c r="K40" s="21" t="str">
+        <f>'Sheet 1'!T52</f>
+        <v>:</v>
+      </c>
+      <c r="L40" s="21" t="str">
+        <f>'Sheet 1'!V52</f>
+        <v>:</v>
+      </c>
+      <c r="M40" s="21" t="str">
+        <f>'Sheet 1'!X52</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="str">
+        <f>'Sheet 1'!A53</f>
+        <v>Turkey</v>
+      </c>
+      <c r="B41" s="21" t="str">
+        <f>'Sheet 1'!B53</f>
+        <v>:</v>
+      </c>
+      <c r="C41" s="21" t="str">
+        <f>'Sheet 1'!D53</f>
+        <v>:</v>
+      </c>
+      <c r="D41" s="21" t="str">
+        <f>'Sheet 1'!F53</f>
+        <v>:</v>
+      </c>
+      <c r="E41" s="21" t="str">
+        <f>'Sheet 1'!H53</f>
+        <v>:</v>
+      </c>
+      <c r="F41" s="21" t="str">
+        <f>'Sheet 1'!J53</f>
+        <v>:</v>
+      </c>
+      <c r="G41" s="21" t="str">
+        <f>'Sheet 1'!L53</f>
+        <v>:</v>
+      </c>
+      <c r="H41" s="21" t="str">
+        <f>'Sheet 1'!N53</f>
+        <v>:</v>
+      </c>
+      <c r="I41" s="21" t="str">
+        <f>'Sheet 1'!P53</f>
+        <v>:</v>
+      </c>
+      <c r="J41" s="21" t="str">
+        <f>'Sheet 1'!R53</f>
+        <v>:</v>
+      </c>
+      <c r="K41" s="21" t="str">
+        <f>'Sheet 1'!T53</f>
+        <v>:</v>
+      </c>
+      <c r="L41" s="21" t="str">
+        <f>'Sheet 1'!V53</f>
+        <v>:</v>
+      </c>
+      <c r="M41" s="21" t="str">
+        <f>'Sheet 1'!X53</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="str">
+        <f>'Sheet 1'!A54</f>
+        <v>Belarus</v>
+      </c>
+      <c r="B42" s="21" t="str">
+        <f>'Sheet 1'!B54</f>
+        <v>:</v>
+      </c>
+      <c r="C42" s="21" t="str">
+        <f>'Sheet 1'!D54</f>
+        <v>:</v>
+      </c>
+      <c r="D42" s="21" t="str">
+        <f>'Sheet 1'!F54</f>
+        <v>:</v>
+      </c>
+      <c r="E42" s="21" t="str">
+        <f>'Sheet 1'!H54</f>
+        <v>:</v>
+      </c>
+      <c r="F42" s="21" t="str">
+        <f>'Sheet 1'!J54</f>
+        <v>:</v>
+      </c>
+      <c r="G42" s="21" t="str">
+        <f>'Sheet 1'!L54</f>
+        <v>:</v>
+      </c>
+      <c r="H42" s="21" t="str">
+        <f>'Sheet 1'!N54</f>
+        <v>:</v>
+      </c>
+      <c r="I42" s="21" t="str">
+        <f>'Sheet 1'!P54</f>
+        <v>:</v>
+      </c>
+      <c r="J42" s="21" t="str">
+        <f>'Sheet 1'!R54</f>
+        <v>:</v>
+      </c>
+      <c r="K42" s="21" t="str">
+        <f>'Sheet 1'!T54</f>
+        <v>:</v>
+      </c>
+      <c r="L42" s="21" t="str">
+        <f>'Sheet 1'!V54</f>
+        <v>:</v>
+      </c>
+      <c r="M42" s="21" t="str">
+        <f>'Sheet 1'!X54</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="str">
+        <f>'Sheet 1'!A55</f>
+        <v>Moldova</v>
+      </c>
+      <c r="B43" s="21" t="str">
+        <f>'Sheet 1'!B55</f>
+        <v>:</v>
+      </c>
+      <c r="C43" s="21" t="str">
+        <f>'Sheet 1'!D55</f>
+        <v>:</v>
+      </c>
+      <c r="D43" s="21" t="str">
+        <f>'Sheet 1'!F55</f>
+        <v>:</v>
+      </c>
+      <c r="E43" s="21" t="str">
+        <f>'Sheet 1'!H55</f>
+        <v>:</v>
+      </c>
+      <c r="F43" s="21" t="str">
+        <f>'Sheet 1'!J55</f>
+        <v>:</v>
+      </c>
+      <c r="G43" s="21" t="str">
+        <f>'Sheet 1'!L55</f>
+        <v>:</v>
+      </c>
+      <c r="H43" s="21" t="str">
+        <f>'Sheet 1'!N55</f>
+        <v>:</v>
+      </c>
+      <c r="I43" s="21" t="str">
+        <f>'Sheet 1'!P55</f>
+        <v>:</v>
+      </c>
+      <c r="J43" s="21" t="str">
+        <f>'Sheet 1'!R55</f>
+        <v>:</v>
+      </c>
+      <c r="K43" s="21" t="str">
+        <f>'Sheet 1'!T55</f>
+        <v>:</v>
+      </c>
+      <c r="L43" s="21" t="str">
+        <f>'Sheet 1'!V55</f>
+        <v>:</v>
+      </c>
+      <c r="M43" s="21" t="str">
+        <f>'Sheet 1'!X55</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="str">
+        <f>'Sheet 1'!A56</f>
+        <v>Russia</v>
+      </c>
+      <c r="B44" s="21" t="str">
+        <f>'Sheet 1'!B56</f>
+        <v>:</v>
+      </c>
+      <c r="C44" s="21" t="str">
+        <f>'Sheet 1'!D56</f>
+        <v>:</v>
+      </c>
+      <c r="D44" s="21" t="str">
+        <f>'Sheet 1'!F56</f>
+        <v>:</v>
+      </c>
+      <c r="E44" s="21" t="str">
+        <f>'Sheet 1'!H56</f>
+        <v>:</v>
+      </c>
+      <c r="F44" s="21" t="str">
+        <f>'Sheet 1'!J56</f>
+        <v>:</v>
+      </c>
+      <c r="G44" s="21" t="str">
+        <f>'Sheet 1'!L56</f>
+        <v>:</v>
+      </c>
+      <c r="H44" s="21" t="str">
+        <f>'Sheet 1'!N56</f>
+        <v>:</v>
+      </c>
+      <c r="I44" s="21" t="str">
+        <f>'Sheet 1'!P56</f>
+        <v>:</v>
+      </c>
+      <c r="J44" s="21" t="str">
+        <f>'Sheet 1'!R56</f>
+        <v>:</v>
+      </c>
+      <c r="K44" s="21" t="str">
+        <f>'Sheet 1'!T56</f>
+        <v>:</v>
+      </c>
+      <c r="L44" s="21" t="str">
+        <f>'Sheet 1'!V56</f>
+        <v>:</v>
+      </c>
+      <c r="M44" s="21" t="str">
+        <f>'Sheet 1'!X56</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="str">
+        <f>'Sheet 1'!A57</f>
+        <v>San Marino</v>
+      </c>
+      <c r="B45" s="21" t="str">
+        <f>'Sheet 1'!B57</f>
+        <v>:</v>
+      </c>
+      <c r="C45" s="21" t="str">
+        <f>'Sheet 1'!D57</f>
+        <v>:</v>
+      </c>
+      <c r="D45" s="21" t="str">
+        <f>'Sheet 1'!F57</f>
+        <v>:</v>
+      </c>
+      <c r="E45" s="21" t="str">
+        <f>'Sheet 1'!H57</f>
+        <v>:</v>
+      </c>
+      <c r="F45" s="21" t="str">
+        <f>'Sheet 1'!J57</f>
+        <v>:</v>
+      </c>
+      <c r="G45" s="21" t="str">
+        <f>'Sheet 1'!L57</f>
+        <v>:</v>
+      </c>
+      <c r="H45" s="21" t="str">
+        <f>'Sheet 1'!N57</f>
+        <v>:</v>
+      </c>
+      <c r="I45" s="21" t="str">
+        <f>'Sheet 1'!P57</f>
+        <v>:</v>
+      </c>
+      <c r="J45" s="21" t="str">
+        <f>'Sheet 1'!R57</f>
+        <v>:</v>
+      </c>
+      <c r="K45" s="21" t="str">
+        <f>'Sheet 1'!T57</f>
+        <v>:</v>
+      </c>
+      <c r="L45" s="21" t="str">
+        <f>'Sheet 1'!V57</f>
+        <v>:</v>
+      </c>
+      <c r="M45" s="21" t="str">
+        <f>'Sheet 1'!X57</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="str">
+        <f>'Sheet 1'!A58</f>
+        <v>Kyrgyzstan</v>
+      </c>
+      <c r="B46" s="21" t="str">
+        <f>'Sheet 1'!B58</f>
+        <v>:</v>
+      </c>
+      <c r="C46" s="21" t="str">
+        <f>'Sheet 1'!D58</f>
+        <v>:</v>
+      </c>
+      <c r="D46" s="21" t="str">
+        <f>'Sheet 1'!F58</f>
+        <v>:</v>
+      </c>
+      <c r="E46" s="21" t="str">
+        <f>'Sheet 1'!H58</f>
+        <v>:</v>
+      </c>
+      <c r="F46" s="21" t="str">
+        <f>'Sheet 1'!J58</f>
+        <v>:</v>
+      </c>
+      <c r="G46" s="21" t="str">
+        <f>'Sheet 1'!L58</f>
+        <v>:</v>
+      </c>
+      <c r="H46" s="21" t="str">
+        <f>'Sheet 1'!N58</f>
+        <v>:</v>
+      </c>
+      <c r="I46" s="21" t="str">
+        <f>'Sheet 1'!P58</f>
+        <v>:</v>
+      </c>
+      <c r="J46" s="21" t="str">
+        <f>'Sheet 1'!R58</f>
+        <v>:</v>
+      </c>
+      <c r="K46" s="21" t="str">
+        <f>'Sheet 1'!T58</f>
+        <v>:</v>
+      </c>
+      <c r="L46" s="21" t="str">
+        <f>'Sheet 1'!V58</f>
+        <v>:</v>
+      </c>
+      <c r="M46" s="21" t="str">
+        <f>'Sheet 1'!X58</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="str">
+        <f>'Sheet 1'!A59</f>
+        <v>Tajikistan</v>
+      </c>
+      <c r="B47" s="21" t="str">
+        <f>'Sheet 1'!B59</f>
+        <v>:</v>
+      </c>
+      <c r="C47" s="21" t="str">
+        <f>'Sheet 1'!D59</f>
+        <v>:</v>
+      </c>
+      <c r="D47" s="21" t="str">
+        <f>'Sheet 1'!F59</f>
+        <v>:</v>
+      </c>
+      <c r="E47" s="21" t="str">
+        <f>'Sheet 1'!H59</f>
+        <v>:</v>
+      </c>
+      <c r="F47" s="21" t="str">
+        <f>'Sheet 1'!J59</f>
+        <v>:</v>
+      </c>
+      <c r="G47" s="21" t="str">
+        <f>'Sheet 1'!L59</f>
+        <v>:</v>
+      </c>
+      <c r="H47" s="21" t="str">
+        <f>'Sheet 1'!N59</f>
+        <v>:</v>
+      </c>
+      <c r="I47" s="21" t="str">
+        <f>'Sheet 1'!P59</f>
+        <v>:</v>
+      </c>
+      <c r="J47" s="21" t="str">
+        <f>'Sheet 1'!R59</f>
+        <v>:</v>
+      </c>
+      <c r="K47" s="21" t="str">
+        <f>'Sheet 1'!T59</f>
+        <v>:</v>
+      </c>
+      <c r="L47" s="21" t="str">
+        <f>'Sheet 1'!V59</f>
+        <v>:</v>
+      </c>
+      <c r="M47" s="21" t="str">
+        <f>'Sheet 1'!X59</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="str">
+        <f>'Sheet 1'!A60</f>
+        <v>Uzbekistan</v>
+      </c>
+      <c r="B48" s="21" t="str">
+        <f>'Sheet 1'!B60</f>
+        <v>:</v>
+      </c>
+      <c r="C48" s="21" t="str">
+        <f>'Sheet 1'!D60</f>
+        <v>:</v>
+      </c>
+      <c r="D48" s="21" t="str">
+        <f>'Sheet 1'!F60</f>
+        <v>:</v>
+      </c>
+      <c r="E48" s="21" t="str">
+        <f>'Sheet 1'!H60</f>
+        <v>:</v>
+      </c>
+      <c r="F48" s="21" t="str">
+        <f>'Sheet 1'!J60</f>
+        <v>:</v>
+      </c>
+      <c r="G48" s="21" t="str">
+        <f>'Sheet 1'!L60</f>
+        <v>:</v>
+      </c>
+      <c r="H48" s="21" t="str">
+        <f>'Sheet 1'!N60</f>
+        <v>:</v>
+      </c>
+      <c r="I48" s="21" t="str">
+        <f>'Sheet 1'!P60</f>
+        <v>:</v>
+      </c>
+      <c r="J48" s="21" t="str">
+        <f>'Sheet 1'!R60</f>
+        <v>:</v>
+      </c>
+      <c r="K48" s="21" t="str">
+        <f>'Sheet 1'!T60</f>
+        <v>:</v>
+      </c>
+      <c r="L48" s="21" t="str">
+        <f>'Sheet 1'!V60</f>
+        <v>:</v>
+      </c>
+      <c r="M48" s="21" t="str">
+        <f>'Sheet 1'!X60</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="str">
+        <f>'Sheet 1'!A61</f>
+        <v>Armenia</v>
+      </c>
+      <c r="B49" s="21" t="str">
+        <f>'Sheet 1'!B61</f>
+        <v>:</v>
+      </c>
+      <c r="C49" s="21" t="str">
+        <f>'Sheet 1'!D61</f>
+        <v>:</v>
+      </c>
+      <c r="D49" s="21" t="str">
+        <f>'Sheet 1'!F61</f>
+        <v>:</v>
+      </c>
+      <c r="E49" s="21" t="str">
+        <f>'Sheet 1'!H61</f>
+        <v>:</v>
+      </c>
+      <c r="F49" s="21" t="str">
+        <f>'Sheet 1'!J61</f>
+        <v>:</v>
+      </c>
+      <c r="G49" s="21" t="str">
+        <f>'Sheet 1'!L61</f>
+        <v>:</v>
+      </c>
+      <c r="H49" s="21" t="str">
+        <f>'Sheet 1'!N61</f>
+        <v>:</v>
+      </c>
+      <c r="I49" s="21" t="str">
+        <f>'Sheet 1'!P61</f>
+        <v>:</v>
+      </c>
+      <c r="J49" s="21" t="str">
+        <f>'Sheet 1'!R61</f>
+        <v>:</v>
+      </c>
+      <c r="K49" s="21" t="str">
+        <f>'Sheet 1'!T61</f>
+        <v>:</v>
+      </c>
+      <c r="L49" s="21" t="str">
+        <f>'Sheet 1'!V61</f>
+        <v>:</v>
+      </c>
+      <c r="M49" s="21" t="str">
+        <f>'Sheet 1'!X61</f>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="str">
+        <f>'Sheet 1'!A62</f>
+        <v>Azerbaijan</v>
+      </c>
+      <c r="B50" s="21" t="str">
+        <f>'Sheet 1'!B62</f>
+        <v>:</v>
+      </c>
+      <c r="C50" s="21" t="str">
+        <f>'Sheet 1'!D62</f>
+        <v>:</v>
+      </c>
+      <c r="D50" s="21" t="str">
+        <f>'Sheet 1'!F62</f>
+        <v>:</v>
+      </c>
+      <c r="E50" s="21" t="str">
+        <f>'Sheet 1'!H62</f>
+        <v>:</v>
+      </c>
+      <c r="F50" s="21" t="str">
+        <f>'Sheet 1'!J62</f>
+        <v>:</v>
+      </c>
+      <c r="G50" s="21" t="str">
+        <f>'Sheet 1'!L62</f>
+        <v>:</v>
+      </c>
+      <c r="H50" s="21" t="str">
+        <f>'Sheet 1'!N62</f>
+        <v>:</v>
+      </c>
+      <c r="I50" s="21" t="str">
+        <f>'Sheet 1'!P62</f>
+        <v>:</v>
+      </c>
+      <c r="J50" s="21" t="str">
+        <f>'Sheet 1'!R62</f>
+        <v>:</v>
+      </c>
+      <c r="K50" s="21" t="str">
+        <f>'Sheet 1'!T62</f>
+        <v>:</v>
+      </c>
+      <c r="L50" s="21" t="str">
+        <f>'Sheet 1'!V62</f>
+        <v>:</v>
+      </c>
+      <c r="M50" s="21" t="str">
+        <f>'Sheet 1'!X62</f>
+        <v>:</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -919,28 +3638,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -948,7 +3667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -956,27 +3675,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
@@ -984,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +3726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +3749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>25</v>
       </c>
@@ -1069,24 +3788,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +3813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>30</v>
       </c>
@@ -1102,7 +3821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1110,7 +3829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +3837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +3845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
@@ -1134,7 +3853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1142,7 +3861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1150,7 +3869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1158,7 +3877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
@@ -1166,7 +3885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1174,7 +3893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +3901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1190,7 +3909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
@@ -1198,7 +3917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1206,7 +3925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +3933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1222,7 +3941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
@@ -1230,7 +3949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1238,7 +3957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
@@ -1246,7 +3965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1254,7 +3973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
@@ -1262,7 +3981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1270,7 +3989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1278,7 +3997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +4005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
@@ -1294,7 +4013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1302,7 +4021,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>31</v>
       </c>
@@ -1310,7 +4029,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1318,7 +4037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>31</v>
       </c>
@@ -1326,7 +4045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1334,7 +4053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>31</v>
       </c>
@@ -1342,7 +4061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
@@ -1350,7 +4069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>31</v>
       </c>
@@ -1358,7 +4077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
@@ -1366,7 +4085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +4093,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>31</v>
       </c>
@@ -1382,7 +4101,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>31</v>
       </c>
@@ -1390,7 +4109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
@@ -1398,7 +4117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>31</v>
       </c>
@@ -1406,7 +4125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>31</v>
       </c>
@@ -1414,7 +4133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +4141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
@@ -1430,7 +4149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +4157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
@@ -1446,7 +4165,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +4173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +4181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>31</v>
       </c>
@@ -1470,7 +4189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>31</v>
       </c>
@@ -1478,7 +4197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>31</v>
       </c>
@@ -1486,7 +4205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>31</v>
       </c>
@@ -1494,7 +4213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +4221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +4229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>16</v>
       </c>
@@ -1518,7 +4237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
@@ -1526,7 +4245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>17</v>
       </c>
@@ -1534,7 +4253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>18</v>
       </c>
@@ -1542,7 +4261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>81</v>
       </c>
@@ -1550,7 +4269,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>81</v>
       </c>
@@ -1558,7 +4277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>81</v>
       </c>
@@ -1566,7 +4285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>81</v>
       </c>
@@ -1574,7 +4293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>81</v>
       </c>
@@ -1582,7 +4301,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>81</v>
       </c>
@@ -1590,7 +4309,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>81</v>
       </c>
@@ -1598,7 +4317,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
@@ -1606,7 +4325,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>81</v>
       </c>
@@ -1614,7 +4333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>81</v>
       </c>
@@ -1622,7 +4341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>81</v>
       </c>
@@ -1630,7 +4349,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>81</v>
       </c>
@@ -1638,7 +4357,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>19</v>
       </c>
@@ -1651,7 +4370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
@@ -1662,9 +4381,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -1691,12 +4410,12 @@
     <col min="25" max="25" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1704,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -1712,7 +4431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,7 +4439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1728,7 +4447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1736,7 +4455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1744,7 +4463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1752,7 +4471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1760,84 +4479,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="K12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="19" t="s">
+      <c r="M12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="19" t="s">
+      <c r="O12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="Q12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="19" t="s">
+      <c r="Q12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="S12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="T12" s="19" t="s">
+      <c r="S12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="V12" s="19" t="s">
+      <c r="U12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="W12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="X12" s="19" t="s">
+      <c r="W12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="X12" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="Y12" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y12" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>99</v>
       </c>
@@ -1914,7 +4633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +4710,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -2068,7 +4787,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2145,7 +4864,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -2222,7 +4941,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2299,7 +5018,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -2376,7 +5095,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
@@ -2453,7 +5172,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -2530,7 +5249,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
@@ -2607,7 +5326,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -2684,7 +5403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -2761,7 +5480,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -2838,7 +5557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
@@ -2915,7 +5634,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
@@ -2992,7 +5711,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>46</v>
       </c>
@@ -3069,7 +5788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
@@ -3146,7 +5865,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -3223,7 +5942,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
@@ -3300,7 +6019,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
@@ -3377,7 +6096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
@@ -3454,7 +6173,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
@@ -3531,7 +6250,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
@@ -3608,7 +6327,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>54</v>
       </c>
@@ -3685,7 +6404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>55</v>
       </c>
@@ -3762,7 +6481,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -3839,7 +6558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>57</v>
       </c>
@@ -3916,7 +6635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>58</v>
       </c>
@@ -3993,7 +6712,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>59</v>
       </c>
@@ -4070,7 +6789,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -4147,7 +6866,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -4224,7 +6943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>62</v>
       </c>
@@ -4301,7 +7020,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -4378,7 +7097,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>64</v>
       </c>
@@ -4455,7 +7174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>65</v>
       </c>
@@ -4532,7 +7251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>66</v>
       </c>
@@ -4609,7 +7328,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>67</v>
       </c>
@@ -4686,7 +7405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
@@ -4763,7 +7482,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -4840,7 +7559,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>70</v>
       </c>
@@ -4917,7 +7636,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>71</v>
       </c>
@@ -4994,7 +7713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -5071,7 +7790,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>73</v>
       </c>
@@ -5148,7 +7867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
@@ -5225,7 +7944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>75</v>
       </c>
@@ -5302,7 +8021,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>76</v>
       </c>
@@ -5379,7 +8098,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>77</v>
       </c>
@@ -5456,7 +8175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>78</v>
       </c>
@@ -5533,7 +8252,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>79</v>
       </c>
@@ -5610,7 +8329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>80</v>
       </c>
@@ -5687,12 +8406,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>100</v>
       </c>
@@ -5700,12 +8419,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5713,7 +8432,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>105</v>
       </c>
@@ -5721,7 +8440,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
@@ -5729,7 +8448,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
@@ -5737,7 +8456,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -5745,7 +8464,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
@@ -5755,6 +8474,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="L12:M12"/>
@@ -5762,17 +8486,12 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
@@ -5783,9 +8502,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -5812,12 +8531,12 @@
     <col min="25" max="25" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -5825,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -5833,7 +8552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5841,7 +8560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -5849,7 +8568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5857,7 +8576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -5865,7 +8584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -5873,7 +8592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -5881,84 +8600,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="K12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="19" t="s">
+      <c r="M12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="19" t="s">
+      <c r="O12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="Q12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="19" t="s">
+      <c r="Q12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="S12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="T12" s="19" t="s">
+      <c r="S12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="V12" s="19" t="s">
+      <c r="U12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="W12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="X12" s="19" t="s">
+      <c r="W12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="X12" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="Y12" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y12" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>99</v>
       </c>
@@ -6035,7 +8754,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -6112,7 +8831,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -6189,7 +8908,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -6266,7 +8985,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -6343,7 +9062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -6420,7 +9139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -6497,7 +9216,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
@@ -6574,7 +9293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -6651,7 +9370,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
@@ -6728,7 +9447,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -6805,7 +9524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -6882,7 +9601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -6959,7 +9678,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
@@ -7036,7 +9755,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
@@ -7113,7 +9832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>46</v>
       </c>
@@ -7190,7 +9909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
@@ -7267,7 +9986,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -7344,7 +10063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
@@ -7421,7 +10140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
@@ -7498,7 +10217,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
@@ -7575,7 +10294,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
@@ -7652,7 +10371,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
@@ -7729,7 +10448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>54</v>
       </c>
@@ -7806,7 +10525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>55</v>
       </c>
@@ -7883,7 +10602,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -7960,7 +10679,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>57</v>
       </c>
@@ -8037,7 +10756,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>58</v>
       </c>
@@ -8114,7 +10833,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>59</v>
       </c>
@@ -8191,7 +10910,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -8268,7 +10987,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -8345,7 +11064,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>62</v>
       </c>
@@ -8422,7 +11141,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -8499,7 +11218,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>64</v>
       </c>
@@ -8576,7 +11295,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>65</v>
       </c>
@@ -8653,7 +11372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>66</v>
       </c>
@@ -8730,7 +11449,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>67</v>
       </c>
@@ -8807,7 +11526,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
@@ -8884,7 +11603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -8961,7 +11680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>70</v>
       </c>
@@ -9038,7 +11757,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>71</v>
       </c>
@@ -9115,7 +11834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -9192,7 +11911,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>73</v>
       </c>
@@ -9269,7 +11988,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
@@ -9346,7 +12065,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>75</v>
       </c>
@@ -9423,7 +12142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>76</v>
       </c>
@@ -9500,7 +12219,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>77</v>
       </c>
@@ -9577,7 +12296,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>78</v>
       </c>
@@ -9654,7 +12373,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>79</v>
       </c>
@@ -9731,7 +12450,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>80</v>
       </c>
@@ -9808,12 +12527,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>100</v>
       </c>
@@ -9821,12 +12540,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
@@ -9834,7 +12553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>105</v>
       </c>
@@ -9842,7 +12561,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
@@ -9850,7 +12569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
@@ -9858,7 +12577,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -9866,7 +12585,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
@@ -9876,6 +12595,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="L12:M12"/>
@@ -9883,11 +12607,6 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
